--- a/document/交易大盘数据库设计表@20180312.xlsx
+++ b/document/交易大盘数据库设计表@20180312.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Company\GitLab\jydp\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="306">
   <si>
     <t>user_tab</t>
   </si>
@@ -1048,6 +1048,26 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountStatus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>payPasswordStatus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付密码状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：每笔交易都输入交易密码，2：每次登录只输入一次交易密码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1421,6 +1441,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,12 +1482,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1738,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L77"/>
+  <dimension ref="A2:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1785,7 @@
       </c>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
-      <c r="F2" s="58"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
@@ -2026,13 +2046,13 @@
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>35</v>
+        <v>304</v>
       </c>
       <c r="E13" s="13">
         <v>1</v>
@@ -2050,128 +2070,125 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="2:11" s="30" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="33">
+        <v>1</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33">
+        <v>1</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="51"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="51"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C17" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61"/>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="1:12" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>20</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="9">
-        <v>11</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>15</v>
@@ -2180,46 +2197,51 @@
       <c r="H19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="36"/>
+      <c r="K19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E20" s="9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E21" s="9">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>15</v>
@@ -2228,19 +2250,23 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E22" s="9">
+        <v>30</v>
+      </c>
       <c r="F22" s="9" t="s">
         <v>15</v>
       </c>
@@ -2251,145 +2277,143 @@
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="17"/>
+      <c r="B23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C25" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="9">
-        <v>18</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E27" s="9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="36"/>
+      <c r="I27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E28" s="9">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="8"/>
+      <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>17</v>
@@ -2408,21 +2432,21 @@
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="9">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="33"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2430,21 +2454,21 @@
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="9">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="33"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2452,16 +2476,16 @@
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E32" s="9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>15</v>
@@ -2470,22 +2494,20 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E33" s="9">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>15</v>
@@ -2494,177 +2516,173 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="8"/>
+      <c r="K33" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="34" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E34" s="9">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="9"/>
-      <c r="H34" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9">
-        <v>1</v>
-      </c>
-      <c r="K34" s="52" t="s">
-        <v>69</v>
-      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E35" s="9">
-        <v>200</v>
-      </c>
-      <c r="F35" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="52"/>
+      <c r="J35" s="9">
+        <v>1</v>
+      </c>
+      <c r="K35" s="52" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="9">
+        <v>200</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="52"/>
+    </row>
+    <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="26"/>
-    </row>
-    <row r="37" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="F37" s="9"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
       <c r="K37" s="26"/>
     </row>
-    <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+    <row r="38" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="26"/>
+    </row>
+    <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="27"/>
-    </row>
-    <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="27"/>
     </row>
     <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="9">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>58</v>
@@ -2675,47 +2693,55 @@
       <c r="F42" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H42" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="9"/>
+      <c r="I42" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J42" s="9"/>
       <c r="K42" s="8"/>
     </row>
     <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E43" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="8"/>
     </row>
-    <row r="44" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E44" s="9">
+        <v>200</v>
+      </c>
       <c r="F44" s="9" t="s">
         <v>15</v>
       </c>
@@ -2725,95 +2751,87 @@
       <c r="J44" s="9"/>
       <c r="K44" s="8"/>
     </row>
-    <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="44" t="s">
+    <row r="45" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="8"/>
+    </row>
+    <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="65" t="s">
+      <c r="C47" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-    </row>
-    <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="45" t="s">
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+    </row>
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C48" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D48" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="46" t="s">
+      <c r="E48" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F48" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G48" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="46" t="s">
+      <c r="H48" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="46" t="s">
+      <c r="I48" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="46" t="s">
+      <c r="J48" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="45" t="s">
+      <c r="K48" s="45" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="48">
-        <v>18</v>
-      </c>
-      <c r="F48" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" s="48"/>
-      <c r="K48" s="53" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="47" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D49" s="48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E49" s="48">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F49" s="48" t="s">
         <v>15</v>
@@ -2822,22 +2840,26 @@
       <c r="H49" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="48"/>
+      <c r="I49" s="48" t="s">
+        <v>15</v>
+      </c>
       <c r="J49" s="48"/>
-      <c r="K49" s="53"/>
+      <c r="K49" s="53" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>88</v>
+        <v>12</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E50" s="48">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F50" s="48" t="s">
         <v>15</v>
@@ -2848,84 +2870,84 @@
       </c>
       <c r="I50" s="48"/>
       <c r="J50" s="48"/>
-      <c r="K50" s="49"/>
+      <c r="K50" s="53"/>
     </row>
     <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C51" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E51" s="48">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
+      <c r="H51" s="48" t="s">
+        <v>15</v>
+      </c>
       <c r="I51" s="48"/>
       <c r="J51" s="48"/>
-      <c r="K51" s="49" t="s">
-        <v>91</v>
-      </c>
+      <c r="K51" s="49"/>
     </row>
     <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="9">
-        <v>32</v>
-      </c>
-      <c r="F52" s="9" t="s">
+      <c r="B52" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="48">
+        <v>11</v>
+      </c>
+      <c r="F52" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="48"/>
       <c r="H52" s="48"/>
       <c r="I52" s="48"/>
       <c r="J52" s="48"/>
-      <c r="K52" s="49"/>
+      <c r="K52" s="49" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="48" t="s">
+      <c r="B53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="9">
+        <v>32</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="48"/>
       <c r="H53" s="48"/>
       <c r="I53" s="48"/>
-      <c r="J53" s="48">
-        <v>0</v>
-      </c>
+      <c r="J53" s="48"/>
       <c r="K53" s="49"/>
     </row>
     <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C54" s="49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D54" s="48" t="s">
         <v>28</v>
@@ -2946,16 +2968,16 @@
     </row>
     <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="47" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C55" s="49" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="48">
-        <v>200</v>
+        <v>28</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>29</v>
       </c>
       <c r="F55" s="48" t="s">
         <v>15</v>
@@ -2963,166 +2985,168 @@
       <c r="G55" s="48"/>
       <c r="H55" s="48"/>
       <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J55" s="48">
+        <v>0</v>
+      </c>
+      <c r="K55" s="49"/>
+    </row>
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="47" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C56" s="49" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="48"/>
+        <v>17</v>
+      </c>
+      <c r="E56" s="48">
+        <v>200</v>
+      </c>
       <c r="F56" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="50"/>
+      <c r="G56" s="48"/>
       <c r="H56" s="48"/>
       <c r="I56" s="48"/>
       <c r="J56" s="48"/>
-      <c r="K56" s="49"/>
-    </row>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
+      <c r="K56" s="49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B57" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="50"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="49"/>
+    </row>
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C59" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="63"/>
-      <c r="K58" s="64"/>
-    </row>
-    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="66"/>
+    </row>
+    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E60" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G60" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H60" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I60" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K60" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="9">
-        <v>18</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="8"/>
     </row>
     <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E61" s="9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="9"/>
+      <c r="G61" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H61" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I61" s="9"/>
+      <c r="I61" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J61" s="9"/>
-      <c r="K61" s="36"/>
+      <c r="K61" s="8"/>
     </row>
     <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>101</v>
+        <v>12</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E62" s="9">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62" s="8"/>
+      <c r="K62" s="36"/>
     </row>
     <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E63" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>15</v>
@@ -3135,16 +3159,16 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E64" s="9">
-        <v>400</v>
+        <v>32</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>15</v>
@@ -3157,82 +3181,84 @@
     </row>
     <row r="65" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E65" s="9">
+        <v>400</v>
+      </c>
       <c r="F65" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="26"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="8"/>
     </row>
     <row r="66" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" s="9">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E66" s="9"/>
       <c r="F66" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9">
-        <v>1</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="26"/>
     </row>
     <row r="67" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E67" s="9">
-        <v>200</v>
-      </c>
-      <c r="F67" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="8"/>
+      <c r="J67" s="9">
+        <v>1</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="68" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
@@ -3241,17 +3267,19 @@
       <c r="J68" s="9"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E69" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E69" s="9">
+        <v>16</v>
+      </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -3259,87 +3287,79 @@
       <c r="J69" s="9"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="10" t="s">
+    <row r="70" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="8"/>
+    </row>
+    <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C72" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
-    </row>
-    <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="5" t="s">
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+    </row>
+    <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="I73" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="6" t="s">
+      <c r="J73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K72" s="5" t="s">
+      <c r="K73" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="9">
-        <v>11</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" s="70" t="s">
-        <v>300</v>
-      </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="8"/>
     </row>
     <row r="74" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>14</v>
@@ -3351,41 +3371,43 @@
         <v>15</v>
       </c>
       <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="71"/>
+      <c r="H74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="58" t="s">
+        <v>300</v>
+      </c>
       <c r="J74" s="9"/>
       <c r="K74" s="8"/>
     </row>
     <row r="75" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="E75" s="9">
+        <v>11</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9">
-        <v>0</v>
-      </c>
+      <c r="I75" s="59"/>
+      <c r="J75" s="9"/>
       <c r="K75" s="8"/>
     </row>
     <row r="76" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>28</v>
@@ -3404,40 +3426,64 @@
       </c>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="F77" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
+      <c r="J77" s="9">
+        <v>0</v>
+      </c>
       <c r="K77" s="8"/>
+    </row>
+    <row r="78" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C71:K71"/>
+    <mergeCell ref="C72:K72"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="I74:I75"/>
     <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="C59:K59"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.749305555555556" bottom="0.749305555555556" header="0.29930555555555599" footer="0.29930555555555599"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3637,17 +3683,17 @@
       <c r="B10" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -4117,17 +4163,17 @@
       <c r="B32" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="66"/>
     </row>
     <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
@@ -4291,17 +4337,17 @@
       <c r="B40" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="66"/>
     </row>
     <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
@@ -4567,17 +4613,17 @@
       <c r="B53" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="64"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="66"/>
     </row>
     <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
@@ -4843,17 +4889,17 @@
       <c r="B66" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="66"/>
     </row>
     <row r="67" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
@@ -5147,17 +5193,17 @@
       <c r="B80" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C80" s="62" t="s">
+      <c r="C80" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="D80" s="63"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="63"/>
-      <c r="K80" s="64"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="66"/>
     </row>
     <row r="81" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
@@ -5469,8 +5515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5862,7 +5908,7 @@
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
-      <c r="F19" s="58"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="55"/>
       <c r="H19" s="55"/>
       <c r="I19" s="55"/>
@@ -6145,7 +6191,7 @@
       </c>
       <c r="K30" s="32"/>
     </row>
-    <row r="31" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="21.6" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>208</v>
       </c>
@@ -6238,7 +6284,7 @@
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
-      <c r="F36" s="58"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="55"/>
       <c r="H36" s="55"/>
       <c r="I36" s="55"/>
@@ -6614,7 +6660,7 @@
       </c>
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
-      <c r="F53" s="58"/>
+      <c r="F53" s="60"/>
       <c r="G53" s="55"/>
       <c r="H53" s="55"/>
       <c r="I53" s="55"/>
@@ -6942,7 +6988,7 @@
       </c>
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
-      <c r="F68" s="58"/>
+      <c r="F68" s="60"/>
       <c r="G68" s="55"/>
       <c r="H68" s="55"/>
       <c r="I68" s="55"/>
@@ -7188,17 +7234,17 @@
       <c r="B2" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -7828,17 +7874,17 @@
       <c r="B32" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="66"/>
     </row>
     <row r="33" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
@@ -8042,17 +8088,17 @@
       <c r="B42" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="66"/>
     </row>
     <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -8416,17 +8462,17 @@
       <c r="B60" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="69"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="71"/>
     </row>
     <row r="61" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
